--- a/backend/Журнал_регистрации_отказов.xlsx
+++ b/backend/Журнал_регистрации_отказов.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -761,6 +761,41 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12.12.2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6465259400</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.11.2025</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ПО УПРАВЛЕНИЮ МУНИЦИПАЛЬНЫМ ИМУЩЕСТВОМ ГОРОДА НОВОКУЗНЕЦКА</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>42:30:0507001:148</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NOT_IN_CITY</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/Журнал_регистрации_отказов.xlsx
+++ b/backend/Журнал_регистрации_отказов.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -796,6 +796,76 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6410562680</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.11.2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ПО УПРАВЛЕНИЮ МУНИЦИПАЛЬНЫМ ИМУЩЕСТВОМ ГОРОДА НОВОКУЗНЕЦКА</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>42:30:0508055:134</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NO_BORDERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6410562680</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.11.2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КОМИТЕТ ПО УПРАВЛЕНИЮ МУНИЦИПАЛЬНЫМ ИМУЩЕСТВОМ ГОРОДА НОВОКУЗНЕЦКА</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42:30:0508055:134</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NO_RIGHTS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/Журнал_регистрации_отказов.xlsx
+++ b/backend/Журнал_регистрации_отказов.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -866,6 +866,41 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6391480633</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.11.2025</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ибаев Алескер Фархад оглы</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>42:30:0206002:189</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NO_BORDERS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
